--- a/4.0_Master_ICPrime/ArcSw_MasterPrimeIntegration.xlsx
+++ b/4.0_Master_ICPrime/ArcSw_MasterPrimeIntegration.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10_ProjectsConti\Git\4.0_Master_ICPrime\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93146874-7655-465B-BB2A-751C70A3368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Sw Arc" sheetId="1" r:id="rId1"/>
+    <sheet name="Fcn_Welcome" sheetId="2" r:id="rId2"/>
+    <sheet name="Fcn_DualGauge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +338,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30667EF-C3A5-44A3-8F4A-0626C8AC064C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF89CB1E-01AE-4283-BD1E-87A7139771DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/4.0_Master_ICPrime/ArcSw_MasterPrimeIntegration.xlsx
+++ b/4.0_Master_ICPrime/ArcSw_MasterPrimeIntegration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10_ProjectsConti\Git\4.0_Master_ICPrime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93146874-7655-465B-BB2A-751C70A3368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E6F125-48F3-4B09-9910-841005F501D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23940" yWindow="2700" windowWidth="21600" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Sw Arc" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Messages </t>
+  </si>
+  <si>
+    <t>ICControl</t>
+  </si>
+  <si>
+    <t>Process send sequency to display the welcome message</t>
+  </si>
+  <si>
+    <t>Set Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Position </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -37,12 +57,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,14 +383,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30667EF-C3A5-44A3-8F4A-0626C8AC064C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -372,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF89CB1E-01AE-4283-BD1E-87A7139771DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
